--- a/TODO/3-Saturday/Budget.xlsx
+++ b/TODO/3-Saturday/Budget.xlsx
@@ -588,7 +588,7 @@
   <dimension ref="B2:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -711,6 +711,10 @@
         <f>SUM(H15:H19)</f>
         <v>8750</v>
       </c>
+      <c r="I6" s="4">
+        <f>G5+G6+G7</f>
+        <v>78750</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
